--- a/config_12.21/act_ty_gifts_config.xlsx
+++ b/config_12.21/act_ty_gifts_config.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="200">
   <si>
     <t>index|序号</t>
   </si>
@@ -702,6 +702,26 @@
   </si>
   <si>
     <t>"hflb_btn_bx3","pay_icon_gold4","zpg_icon_shui"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_all_give|一键购买加赠内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"20万金币",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万金币",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万金币",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1378,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1395,17 +1415,17 @@
     <col min="7" max="7" width="43.25" style="5" customWidth="1"/>
     <col min="8" max="8" width="41.625" style="5" customWidth="1"/>
     <col min="9" max="9" width="43.375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="48" style="5" customWidth="1"/>
-    <col min="11" max="11" width="68.125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="77.5" style="5" customWidth="1"/>
-    <col min="13" max="14" width="78.875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="96.375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="126.75" style="5" customWidth="1"/>
-    <col min="17" max="17" width="22.25" style="5" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="5"/>
+    <col min="10" max="11" width="48" style="5" customWidth="1"/>
+    <col min="12" max="12" width="68.125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="77.5" style="5" customWidth="1"/>
+    <col min="14" max="15" width="78.875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="96.375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="126.75" style="5" customWidth="1"/>
+    <col min="18" max="18" width="22.25" style="5" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1437,28 +1457,31 @@
         <v>30</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1487,23 +1510,23 @@
       <c r="J2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1532,23 +1555,23 @@
       <c r="J3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1577,23 +1600,23 @@
       <c r="J4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1622,23 +1645,23 @@
       <c r="J5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1666,23 +1689,24 @@
       <c r="J6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1710,23 +1734,24 @@
       <c r="J7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1754,23 +1779,24 @@
       <c r="J8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="Q8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1798,23 +1824,24 @@
       <c r="J9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1842,23 +1869,23 @@
       <c r="J10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="M10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="N10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1886,23 +1913,23 @@
       <c r="J11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="N11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="Q11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1930,23 +1957,23 @@
       <c r="J12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="N12" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="Q12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="R12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1974,23 +2001,23 @@
       <c r="J13" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="M13" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="N13" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2018,23 +2045,23 @@
       <c r="J14" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="L14" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="M14" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="N14" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="Q14" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="R14" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2062,23 +2089,23 @@
       <c r="J15" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="M15" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="N15" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="Q15" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="R15" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2106,23 +2133,23 @@
       <c r="J16" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="M16" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="N16" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="Q16" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="R16" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2150,23 +2177,23 @@
       <c r="J17" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="L17" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="M17" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="N17" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="Q17" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="R17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2194,23 +2221,23 @@
       <c r="J18" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="L18" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="M18" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="N18" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="Q18" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="R18" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2238,23 +2265,23 @@
       <c r="J19" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="L19" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="M19" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="N19" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="Q19" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="Q19" s="4" t="s">
+      <c r="R19" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2282,23 +2309,23 @@
       <c r="J20" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="L20" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="M20" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="N20" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="Q20" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="R20" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2326,23 +2353,23 @@
       <c r="J21" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="L21" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="M21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="N21" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="Q21" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="R21" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2374,19 +2401,22 @@
         <v>180</v>
       </c>
       <c r="K22" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="M22" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="N22" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="R22" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2418,22 +2448,25 @@
         <v>170</v>
       </c>
       <c r="K23" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="L23" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="M23" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="N23" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="Q23" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="R23" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2465,22 +2498,25 @@
         <v>173</v>
       </c>
       <c r="K24" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="L24" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="M24" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="N24" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="P24" s="5" t="s">
+      <c r="Q24" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="R24" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2512,18 +2548,21 @@
         <v>174</v>
       </c>
       <c r="K25" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="L25" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="M25" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="N25" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="P25" s="5" t="s">
+      <c r="Q25" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="R25" s="4" t="s">
         <v>49</v>
       </c>
     </row>

--- a/config_12.21/act_ty_gifts_config.xlsx
+++ b/config_12.21/act_ty_gifts_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="198">
   <si>
     <t>index|序号</t>
   </si>
@@ -489,10 +489,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>加成效果仅限购买礼包当日</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>加成礼包</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -529,10 +525,6 @@
   </si>
   <si>
     <t>"4980万金币","180万","雪球加成"</t>
-  </si>
-  <si>
-    <t>购买礼包，在游戏中获取的雪球在排行榜中有额外加成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"hflb_btn_bx","ty_icon_yxb_3","act_013_xqlb_jclb_icon_xqjc"</t>
@@ -1249,10 +1241,10 @@
         <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5" s="5">
         <v>1638835200</v>
@@ -1304,13 +1296,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="E7" s="5">
         <v>1640044800</v>
@@ -1322,7 +1314,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I7" s="5">
         <v>1</v>
@@ -1400,7 +1392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
@@ -1436,7 +1428,7 @@
         <v>24</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>25</v>
@@ -1457,7 +1449,7 @@
         <v>30</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>31</v>
@@ -1691,7 +1683,7 @@
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>68</v>
@@ -2037,25 +2029,25 @@
         <v>41</v>
       </c>
       <c r="H14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="L14" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q14" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>49</v>
@@ -2081,25 +2073,25 @@
         <v>41</v>
       </c>
       <c r="H15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>145</v>
-      </c>
       <c r="L15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N15" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="Q15" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R15" s="4" t="s">
         <v>49</v>
@@ -2125,25 +2117,25 @@
         <v>41</v>
       </c>
       <c r="H16" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="L16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N16" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="Q16" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R16" s="4" t="s">
         <v>49</v>
@@ -2169,25 +2161,25 @@
         <v>41</v>
       </c>
       <c r="H17" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="L17" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="M17" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N17" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="M17" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="Q17" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R17" s="4" t="s">
         <v>49</v>
@@ -2222,7 +2214,7 @@
         <v>119</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>131</v>
@@ -2374,13 +2366,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>39</v>
@@ -2392,25 +2384,25 @@
         <v>41</v>
       </c>
       <c r="H22" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>180</v>
-      </c>
       <c r="K22" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="R22" s="4" t="s">
         <v>49</v>
@@ -2421,13 +2413,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>51</v>
@@ -2439,25 +2431,25 @@
         <v>41</v>
       </c>
       <c r="H23" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="K23" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q23" s="5" t="s">
         <v>135</v>
@@ -2471,13 +2463,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>56</v>
@@ -2489,25 +2481,25 @@
         <v>41</v>
       </c>
       <c r="H24" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="K24" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q24" s="5" t="s">
         <v>135</v>
@@ -2521,13 +2513,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>60</v>
@@ -2539,25 +2531,25 @@
         <v>41</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q25" s="5" t="s">
         <v>135</v>
@@ -2577,8 +2569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2596,20 +2588,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>149</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
